--- a/Code/Results/Cases/Case_2_139/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_139/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.54188148296774</v>
+        <v>15.24594150502986</v>
       </c>
       <c r="C2">
-        <v>13.53596598187191</v>
+        <v>10.78029317107008</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.225191212190278</v>
+        <v>12.2716143256284</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>2.083986772196488</v>
+        <v>3.63545879023024</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>12.30758208602909</v>
+        <v>22.04260876646949</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.260261093642205</v>
+        <v>10.03568267277051</v>
       </c>
       <c r="M2">
-        <v>12.42542250350975</v>
+        <v>14.60136761148097</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.75590072111407</v>
+        <v>21.64217706859149</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.11352991251206</v>
+        <v>14.64847755712248</v>
       </c>
       <c r="C3">
-        <v>12.91837116598912</v>
+        <v>10.52385880621348</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.356012688413414</v>
+        <v>12.32233011089698</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>2.089252815622288</v>
+        <v>3.637418412451142</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>12.75440392592664</v>
+        <v>22.21166831311537</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.182907196511333</v>
+        <v>10.04526925676741</v>
       </c>
       <c r="M3">
-        <v>11.79867279421482</v>
+        <v>14.46538911247506</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.96711304805212</v>
+        <v>21.78665297732572</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.18433688580081</v>
+        <v>14.26930731802055</v>
       </c>
       <c r="C4">
-        <v>12.52409731284622</v>
+        <v>10.36249423100027</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.439045177234213</v>
+        <v>12.35513536630354</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>2.092581454992327</v>
+        <v>3.638684810112848</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.03947676993321</v>
+        <v>22.32100082394035</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.137959330135647</v>
+        <v>10.05257892968026</v>
       </c>
       <c r="M4">
-        <v>11.39927872059125</v>
+        <v>14.38270015286681</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.11563390525569</v>
+        <v>21.88164429386773</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.79249829981566</v>
+        <v>14.11189893061301</v>
       </c>
       <c r="C5">
-        <v>12.35977834609098</v>
+        <v>10.29582154562277</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.473572810512332</v>
+        <v>12.36892382491229</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>2.093962486699962</v>
+        <v>3.639216814896257</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.15829081270209</v>
+        <v>22.36694749521824</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.120288403555716</v>
+        <v>10.05591602755954</v>
       </c>
       <c r="M5">
-        <v>11.23302551352763</v>
+        <v>14.34923359824358</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.18060085112984</v>
+        <v>21.92193023011123</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.7266356828978</v>
+        <v>14.08559312490176</v>
       </c>
       <c r="C6">
-        <v>12.33227747572456</v>
+        <v>10.28469739884723</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.47934814283022</v>
+        <v>12.37123879425823</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>2.094193308612629</v>
+        <v>3.639306117935939</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.17817824391926</v>
+        <v>22.37466109753307</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.117393280288876</v>
+        <v>10.05649180389803</v>
       </c>
       <c r="M6">
-        <v>11.205213562626</v>
+        <v>14.34369119883178</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.19164875835011</v>
+        <v>21.92871477514984</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.17910588049515</v>
+        <v>14.26719587906251</v>
       </c>
       <c r="C7">
-        <v>12.5218958224213</v>
+        <v>10.36159867227624</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.439508016742463</v>
+        <v>12.35531961986807</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>2.092599979718023</v>
+        <v>3.638691920319268</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.04106848906529</v>
+        <v>22.32161483426796</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.137718393708341</v>
+        <v>10.05262248353134</v>
       </c>
       <c r="M7">
-        <v>11.39705048802214</v>
+        <v>14.38224784367458</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.116492453121</v>
+        <v>21.88218122678813</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.06017578562539</v>
+        <v>15.04260999660249</v>
       </c>
       <c r="C8">
-        <v>13.32622314449477</v>
+        <v>10.69272659664646</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.269742869886889</v>
+        <v>12.2887561852346</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>2.085783119285267</v>
+        <v>3.636121384714259</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>12.45938554263701</v>
+        <v>22.09975434390255</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.233064065507198</v>
+        <v>10.03869294499518</v>
       </c>
       <c r="M8">
-        <v>12.21243293878978</v>
+        <v>14.55433265911385</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.82463502797427</v>
+        <v>21.69068624272112</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.33803445890339</v>
+        <v>16.45755437602974</v>
       </c>
       <c r="C9">
-        <v>14.7789919091175</v>
+        <v>11.3082197127296</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.957826428712917</v>
+        <v>12.171384583474</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.073141069460512</v>
+        <v>3.631579608120049</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>11.40691719050833</v>
+        <v>21.70844854223809</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.439984523801126</v>
+        <v>10.02265234782705</v>
       </c>
       <c r="M9">
-        <v>13.76325519652035</v>
+        <v>14.89690895239655</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.41589520236559</v>
+        <v>21.36517751457645</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.50034779027182</v>
+        <v>17.42373765164852</v>
       </c>
       <c r="C10">
-        <v>15.7652771972413</v>
+        <v>11.73634208906358</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.740743614228053</v>
+        <v>12.09309472905348</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.064250787316566</v>
+        <v>3.628543787922732</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>10.69342105949972</v>
+        <v>21.44747988758631</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.603772187584253</v>
+        <v>10.01771230066688</v>
       </c>
       <c r="M10">
-        <v>14.92879089111913</v>
+        <v>15.150038226863</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.23612013471046</v>
+        <v>21.15674347140891</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.43169398699341</v>
+        <v>17.84584331795234</v>
       </c>
       <c r="C11">
-        <v>16.19563734465582</v>
+        <v>11.92523508841321</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.64444613803105</v>
+        <v>12.05918658860557</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.060282168568502</v>
+        <v>3.627227397081231</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>10.38375901915743</v>
+        <v>21.33448613860461</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.680746065716379</v>
+        <v>10.01694376529097</v>
       </c>
       <c r="M11">
-        <v>15.43231210080579</v>
+        <v>15.26514804122504</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.18533480452036</v>
+        <v>21.06864308785926</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.77693897961901</v>
+        <v>18.00307672434247</v>
       </c>
       <c r="C12">
-        <v>16.35593034508132</v>
+        <v>11.99587309895344</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.608319776471378</v>
+        <v>12.04659055510876</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.058789293899839</v>
+        <v>3.626738154679594</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>10.26886684531182</v>
+        <v>21.29251905268916</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.710240780190898</v>
+        <v>10.01686459825347</v>
       </c>
       <c r="M12">
-        <v>15.61917919594128</v>
+        <v>15.30870157347889</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.17097598521117</v>
+        <v>21.03625235903745</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.70291359690588</v>
+        <v>17.96933123108338</v>
       </c>
       <c r="C13">
-        <v>16.32152789141647</v>
+        <v>11.98070032806193</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.616085362659979</v>
+        <v>12.04929249126374</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.059110383739808</v>
+        <v>3.626843111282554</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>10.29350128594384</v>
+        <v>21.30152091797053</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.703873286135543</v>
+        <v>10.01687223894536</v>
       </c>
       <c r="M13">
-        <v>15.57910270518266</v>
+        <v>15.29932362313364</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.17384502339597</v>
+        <v>21.04318501603802</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.46024601955693</v>
+        <v>17.85883183530776</v>
       </c>
       <c r="C14">
-        <v>16.20887855537894</v>
+        <v>11.93106465462554</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.64146727836687</v>
+        <v>12.05814541673805</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.060159154848979</v>
+        <v>3.627186961767991</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>10.37425776593544</v>
+        <v>21.3310170323523</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.68316571710338</v>
+        <v>10.01693301089945</v>
       </c>
       <c r="M14">
-        <v>15.44776183367461</v>
+        <v>15.26873211140506</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.18405343995564</v>
+        <v>21.06595879400182</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.31063937896985</v>
+        <v>17.79080517188987</v>
       </c>
       <c r="C15">
-        <v>16.13952817551329</v>
+        <v>11.90054387536502</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.657058221406233</v>
+        <v>12.06359986378998</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.060802825520499</v>
+        <v>3.627398782895985</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>10.42403980464754</v>
+        <v>21.34919115045578</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.670526605561418</v>
+        <v>10.01699780157858</v>
       </c>
       <c r="M15">
-        <v>15.36681721707596</v>
+        <v>15.24998833847514</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.190953382659</v>
+        <v>21.08003499189589</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.43843689766236</v>
+        <v>17.39579232340326</v>
       </c>
       <c r="C16">
-        <v>15.73677983019829</v>
+        <v>11.72387526812859</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.747085128315781</v>
+        <v>12.09534494495288</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.064511590428663</v>
+        <v>3.628631113528993</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>10.71397627210299</v>
+        <v>21.45497929687857</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.598790672613887</v>
+        <v>10.01779221719677</v>
       </c>
       <c r="M16">
-        <v>14.89535020766214</v>
+        <v>15.14251212644232</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.2400981061638</v>
+        <v>21.16263663517289</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.89003287070074</v>
+        <v>17.1489248819895</v>
       </c>
       <c r="C17">
-        <v>15.48498346568301</v>
+        <v>11.61395739634274</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.802932946249593</v>
+        <v>12.11525574922827</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>2.066805531192602</v>
+        <v>3.629403626167985</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>10.89580527140165</v>
+        <v>21.52134128717003</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.555408627487018</v>
+        <v>10.01865777238656</v>
       </c>
       <c r="M17">
-        <v>14.59930643021042</v>
+        <v>15.07654704086452</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.27847823855479</v>
+        <v>21.21503406875505</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.56967724184552</v>
+        <v>17.00529920193973</v>
       </c>
       <c r="C18">
-        <v>15.33843544854376</v>
+        <v>11.5501864243109</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.835287020200378</v>
+        <v>12.12686858937084</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>2.068132121178973</v>
+        <v>3.62985403997212</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>11.00177541585301</v>
+        <v>21.56004964230148</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.530689017196771</v>
+        <v>10.01929485211979</v>
       </c>
       <c r="M18">
-        <v>14.42651571103078</v>
+        <v>15.03860370143209</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.3034453242374</v>
+        <v>21.24580364164551</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.46036138134411</v>
+        <v>16.95639279725185</v>
       </c>
       <c r="C19">
-        <v>15.28852267727105</v>
+        <v>11.52850191047459</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.846281783350664</v>
+        <v>12.13082812742991</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>2.068582541163633</v>
+        <v>3.630007588849665</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>11.03788731358666</v>
+        <v>21.5732481992364</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.522359588066997</v>
+        <v>10.01953449255408</v>
       </c>
       <c r="M19">
-        <v>14.36757904284886</v>
+        <v>15.02575733016126</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.31238290920456</v>
+        <v>21.25633007815746</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.94892085326148</v>
+        <v>17.17537426597861</v>
       </c>
       <c r="C20">
-        <v>15.51196612946496</v>
+        <v>11.62571553943958</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.796963947586505</v>
+        <v>12.11311958931295</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>2.066560601047124</v>
+        <v>3.629320761440627</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>10.87630426793136</v>
+        <v>21.51422119948533</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.560002708707029</v>
+        <v>10.01855122760998</v>
       </c>
       <c r="M20">
-        <v>14.63108078717779</v>
+        <v>15.08356956111178</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.27409032850459</v>
+        <v>21.20939083149327</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.53172447187949</v>
+        <v>17.89135974812475</v>
       </c>
       <c r="C21">
-        <v>16.24203927021229</v>
+        <v>11.94566842228054</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.634002894455326</v>
+        <v>12.05553847812392</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.059850842816307</v>
+        <v>3.627085713968551</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>10.35047121228956</v>
+        <v>21.32233103427094</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.689238694660878</v>
+        <v>10.01690941745002</v>
       </c>
       <c r="M21">
-        <v>15.48644282849629</v>
+        <v>15.2777187981565</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.18091939783412</v>
+        <v>21.05924319059063</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.52287998199188</v>
+        <v>18.34405304513242</v>
       </c>
       <c r="C22">
-        <v>16.70358136400064</v>
+        <v>12.14955911658769</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.529469962995062</v>
+        <v>12.01932901694822</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.055523179612756</v>
+        <v>3.625678854356159</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>10.02077365614665</v>
+        <v>21.20170556971587</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.775717445454486</v>
+        <v>10.0170708692813</v>
       </c>
       <c r="M22">
-        <v>16.02330879699786</v>
+        <v>15.40438261973974</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.148623620895</v>
+        <v>20.96677504442988</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.99781429266226</v>
+        <v>18.10386771377333</v>
       </c>
       <c r="C23">
-        <v>16.45868605003627</v>
+        <v>12.04123119496709</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.585085410803225</v>
+        <v>12.0385248400294</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.057827989728739</v>
+        <v>3.626424807488866</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>10.19537099835169</v>
+        <v>21.26564826572414</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.729380258902447</v>
+        <v>10.01687202243346</v>
       </c>
       <c r="M23">
-        <v>15.73878924889928</v>
+        <v>15.33681015268498</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.16310515015319</v>
+        <v>21.01560725997441</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.92231339731297</v>
+        <v>17.16342178122586</v>
       </c>
       <c r="C24">
-        <v>15.49977282968264</v>
+        <v>11.62040147872257</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.7996617633217</v>
+        <v>12.11408483050733</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.066671309686347</v>
+        <v>3.629358204999162</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>10.88511622056418</v>
+        <v>21.51743845917455</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.557925034636771</v>
+        <v>10.0185989620406</v>
       </c>
       <c r="M24">
-        <v>14.61672367379462</v>
+        <v>15.08039473697946</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.2760650954917</v>
+        <v>21.21194012843346</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.49481911732473</v>
+        <v>16.08708983127496</v>
       </c>
       <c r="C25">
-        <v>14.39991481913416</v>
+        <v>11.14570884051679</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.040032786560929</v>
+        <v>12.20173614876632</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.0764878212333</v>
+        <v>3.63275518613237</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.68167859255419</v>
+        <v>21.80963841441556</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.381910260662544</v>
+        <v>10.02578733829063</v>
       </c>
       <c r="M25">
-        <v>13.31019046999734</v>
+        <v>14.80385839751974</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.50688377876815</v>
+        <v>21.44785900968401</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_139/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_139/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.24594150502986</v>
+        <v>21.54188148296771</v>
       </c>
       <c r="C2">
-        <v>10.78029317107008</v>
+        <v>13.53596598187193</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.2716143256284</v>
+        <v>7.225191212190414</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.63545879023024</v>
+        <v>2.083986772196354</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>22.04260876646949</v>
+        <v>12.30758208602932</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.03568267277051</v>
+        <v>6.260261093642194</v>
       </c>
       <c r="M2">
-        <v>14.60136761148097</v>
+        <v>12.42542250350978</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.64217706859149</v>
+        <v>12.75590072111431</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.64847755712248</v>
+        <v>20.11352991251205</v>
       </c>
       <c r="C3">
-        <v>10.52385880621348</v>
+        <v>12.9183711659891</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.32233011089698</v>
+        <v>7.356012688413347</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.637418412451142</v>
+        <v>2.08925281562269</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>22.21166831311537</v>
+        <v>12.75440392592668</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.04526925676741</v>
+        <v>6.18290719651139</v>
       </c>
       <c r="M3">
-        <v>14.46538911247506</v>
+        <v>11.79867279421483</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.78665297732572</v>
+        <v>12.96711304805219</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.26930731802055</v>
+        <v>19.18433688580078</v>
       </c>
       <c r="C4">
-        <v>10.36249423100027</v>
+        <v>12.52409731284629</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.35513536630354</v>
+        <v>7.439045177234214</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.638684810112848</v>
+        <v>2.092581454992462</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.32100082394035</v>
+        <v>13.03947676993319</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.05257892968026</v>
+        <v>6.137959330135653</v>
       </c>
       <c r="M4">
-        <v>14.38270015286681</v>
+        <v>11.39927872059126</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.88164429386773</v>
+        <v>13.11563390525568</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.11189893061301</v>
+        <v>18.79249829981561</v>
       </c>
       <c r="C5">
-        <v>10.29582154562277</v>
+        <v>12.3597783460908</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.36892382491229</v>
+        <v>7.473572810512133</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.639216814896257</v>
+        <v>2.093962486699962</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.36694749521824</v>
+        <v>13.15829081270222</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.05591602755954</v>
+        <v>6.120288403555668</v>
       </c>
       <c r="M5">
-        <v>14.34923359824358</v>
+        <v>11.23302551352763</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.92193023011123</v>
+        <v>13.18060085112999</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.08559312490176</v>
+        <v>18.72663568289785</v>
       </c>
       <c r="C6">
-        <v>10.28469739884723</v>
+        <v>12.3322774757243</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.37123879425823</v>
+        <v>7.47934814283002</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.639306117935939</v>
+        <v>2.094193308612229</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>22.37466109753307</v>
+        <v>13.1781782439191</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.05649180389803</v>
+        <v>6.117393280288846</v>
       </c>
       <c r="M6">
-        <v>14.34369119883178</v>
+        <v>11.20521356262596</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.92871477514984</v>
+        <v>13.19164875835006</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.26719587906251</v>
+        <v>19.17910588049514</v>
       </c>
       <c r="C7">
-        <v>10.36159867227624</v>
+        <v>12.52189582242129</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.35531961986807</v>
+        <v>7.439508016742463</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.638691920319268</v>
+        <v>2.092599979717888</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.32161483426796</v>
+        <v>13.04106848906523</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.05262248353134</v>
+        <v>6.137718393708309</v>
       </c>
       <c r="M7">
-        <v>14.38224784367458</v>
+        <v>11.39705048802213</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.88218122678813</v>
+        <v>13.11649245312097</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.04260999660249</v>
+        <v>21.06017578562541</v>
       </c>
       <c r="C8">
-        <v>10.69272659664646</v>
+        <v>13.32622314449467</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.2887561852346</v>
+        <v>7.269742869886888</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.636121384714259</v>
+        <v>2.085783119285267</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>22.09975434390255</v>
+        <v>12.45938554263699</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.03869294499518</v>
+        <v>6.233064065507224</v>
       </c>
       <c r="M8">
-        <v>14.55433265911385</v>
+        <v>12.21243293878979</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.69068624272112</v>
+        <v>12.82463502797428</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.45755437602974</v>
+        <v>24.33803445890332</v>
       </c>
       <c r="C9">
-        <v>11.3082197127296</v>
+        <v>14.77899190911743</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.171384583474</v>
+        <v>6.957826428712985</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.631579608120049</v>
+        <v>2.073141069460646</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>21.70844854223809</v>
+        <v>11.40691719050869</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.02265234782705</v>
+        <v>6.439984523801079</v>
       </c>
       <c r="M9">
-        <v>14.89690895239655</v>
+        <v>13.76325519652031</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.36517751457645</v>
+        <v>12.41589520236589</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.42373765164852</v>
+        <v>26.50034779027177</v>
       </c>
       <c r="C10">
-        <v>11.73634208906358</v>
+        <v>15.76527719724137</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.09309472905348</v>
+        <v>6.740743614227989</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.628543787922732</v>
+        <v>2.064250787316165</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>21.44747988758631</v>
+        <v>10.69342105949993</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.01771230066688</v>
+        <v>6.603772187584179</v>
       </c>
       <c r="M10">
-        <v>15.150038226863</v>
+        <v>14.92879089111913</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.15674347140891</v>
+        <v>12.23612013471062</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.84584331795234</v>
+        <v>27.43169398699347</v>
       </c>
       <c r="C11">
-        <v>11.92523508841321</v>
+        <v>16.19563734465586</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.05918658860557</v>
+        <v>6.644446138031121</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.627227397081231</v>
+        <v>2.060282168568503</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>21.33448613860461</v>
+        <v>10.38375901915727</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.01694376529097</v>
+        <v>6.680746065716399</v>
       </c>
       <c r="M11">
-        <v>15.26514804122504</v>
+        <v>15.43231210080584</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.06864308785926</v>
+        <v>12.18533480452027</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.00307672434247</v>
+        <v>27.77693897961905</v>
       </c>
       <c r="C12">
-        <v>11.99587309895344</v>
+        <v>16.35593034508125</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.04659055510876</v>
+        <v>6.608319776471376</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.626738154679594</v>
+        <v>2.058789293899705</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>21.29251905268916</v>
+        <v>10.26886684531174</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.01686459825347</v>
+        <v>6.710240780190907</v>
       </c>
       <c r="M12">
-        <v>15.30870157347889</v>
+        <v>15.6191791959413</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.03625235903745</v>
+        <v>12.17097598521111</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.96933123108338</v>
+        <v>27.7029135969059</v>
       </c>
       <c r="C13">
-        <v>11.98070032806193</v>
+        <v>16.32152789141631</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.04929249126374</v>
+        <v>6.616085362659911</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.626843111282554</v>
+        <v>2.059110383739538</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>21.30152091797053</v>
+        <v>10.29350128594377</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.01687223894536</v>
+        <v>6.703873286135536</v>
       </c>
       <c r="M13">
-        <v>15.29932362313364</v>
+        <v>15.57910270518268</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.04318501603802</v>
+        <v>12.17384502339601</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.85883183530776</v>
+        <v>27.46024601955696</v>
       </c>
       <c r="C14">
-        <v>11.93106465462554</v>
+        <v>16.20887855537881</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.05814541673805</v>
+        <v>6.641467278366737</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.627186961767991</v>
+        <v>2.060159154848844</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>21.3310170323523</v>
+        <v>10.37425776593541</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.01693301089945</v>
+        <v>6.683165717103326</v>
       </c>
       <c r="M14">
-        <v>15.26873211140506</v>
+        <v>15.44776183367465</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.06595879400182</v>
+        <v>12.18405343995564</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.79080517188987</v>
+        <v>27.31063937896987</v>
       </c>
       <c r="C15">
-        <v>11.90054387536502</v>
+        <v>16.13952817551325</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.06359986378998</v>
+        <v>6.6570582214063</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>3.627398782895985</v>
+        <v>2.060802825520767</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>21.34919115045578</v>
+        <v>10.42403980464751</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.01699780157858</v>
+        <v>6.670526605561494</v>
       </c>
       <c r="M15">
-        <v>15.24998833847514</v>
+        <v>15.36681721707595</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.08003499189589</v>
+        <v>12.19095338265906</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.39579232340326</v>
+        <v>26.4384368976624</v>
       </c>
       <c r="C16">
-        <v>11.72387526812859</v>
+        <v>15.73677983019826</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.09534494495288</v>
+        <v>6.747085128315714</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>3.628631113528993</v>
+        <v>2.06451159042853</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>21.45497929687857</v>
+        <v>10.71397627210295</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.01779221719677</v>
+        <v>6.598790672613843</v>
       </c>
       <c r="M16">
-        <v>15.14251212644232</v>
+        <v>14.89535020766218</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.16263663517289</v>
+        <v>12.24009810616374</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.1489248819895</v>
+        <v>25.89003287070073</v>
       </c>
       <c r="C17">
-        <v>11.61395739634274</v>
+        <v>15.484983465683</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.11525574922827</v>
+        <v>6.802932946249525</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.629403626167985</v>
+        <v>2.066805531192603</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>21.52134128717003</v>
+        <v>10.8958052714017</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.01865777238656</v>
+        <v>6.55540862748704</v>
       </c>
       <c r="M17">
-        <v>15.07654704086452</v>
+        <v>14.59930643021042</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.21503406875505</v>
+        <v>12.27847823855489</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.00529920193973</v>
+        <v>25.56967724184547</v>
       </c>
       <c r="C18">
-        <v>11.5501864243109</v>
+        <v>15.33843544854376</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.12686858937084</v>
+        <v>6.835287020200377</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>3.62985403997212</v>
+        <v>2.068132121178974</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>21.56004964230148</v>
+        <v>11.00177541585327</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.01929485211979</v>
+        <v>6.530689017196828</v>
       </c>
       <c r="M18">
-        <v>15.03860370143209</v>
+        <v>14.42651571103074</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.24580364164551</v>
+        <v>12.30344532423759</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.95639279725185</v>
+        <v>25.46036138134416</v>
       </c>
       <c r="C19">
-        <v>11.52850191047459</v>
+        <v>15.28852267727112</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.13082812742991</v>
+        <v>6.8462817833508</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>3.630007588849665</v>
+        <v>2.068582541164036</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>21.5732481992364</v>
+        <v>11.03788731358651</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.01953449255408</v>
+        <v>6.522359588066992</v>
       </c>
       <c r="M19">
-        <v>15.02575733016126</v>
+        <v>14.36757904284889</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.25633007815746</v>
+        <v>12.31238290920441</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.17537426597861</v>
+        <v>25.94892085326144</v>
       </c>
       <c r="C20">
-        <v>11.62571553943958</v>
+        <v>15.51196612946508</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.11311958931295</v>
+        <v>6.79696394758644</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.629320761440627</v>
+        <v>2.066560601047257</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>21.51422119948533</v>
+        <v>10.87630426793137</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.01855122760998</v>
+        <v>6.560002708706973</v>
       </c>
       <c r="M20">
-        <v>15.08356956111178</v>
+        <v>14.6310807871778</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.20939083149327</v>
+        <v>12.27409032850457</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.89135974812475</v>
+        <v>27.53172447187949</v>
       </c>
       <c r="C21">
-        <v>11.94566842228054</v>
+        <v>16.24203927021234</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.05553847812392</v>
+        <v>6.634002894455326</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.627085713968551</v>
+        <v>2.059850842816308</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>21.32233103427094</v>
+        <v>10.35047121228962</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.01690941745002</v>
+        <v>6.689238694660904</v>
       </c>
       <c r="M21">
-        <v>15.2777187981565</v>
+        <v>15.48644282849627</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.05924319059063</v>
+        <v>12.18091939783414</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.34405304513242</v>
+        <v>28.52287998199189</v>
       </c>
       <c r="C22">
-        <v>12.14955911658769</v>
+        <v>16.70358136400068</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.01932901694822</v>
+        <v>6.529469962995263</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.625678854356159</v>
+        <v>2.055523179612488</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>21.20170556971587</v>
+        <v>10.02077365614666</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.0170708692813</v>
+        <v>6.77571744545456</v>
       </c>
       <c r="M22">
-        <v>15.40438261973974</v>
+        <v>16.02330879699784</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.96677504442988</v>
+        <v>12.14862362089499</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.10386771377333</v>
+        <v>27.99781429266233</v>
       </c>
       <c r="C23">
-        <v>12.04123119496709</v>
+        <v>16.45868605003621</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.0385248400294</v>
+        <v>6.585085410803225</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.626424807488866</v>
+        <v>2.057827989728872</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>21.26564826572414</v>
+        <v>10.1953709983514</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.01687202243346</v>
+        <v>6.729380258902452</v>
       </c>
       <c r="M23">
-        <v>15.33681015268498</v>
+        <v>15.73878924889935</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.01560725997441</v>
+        <v>12.16310515015305</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.16342178122586</v>
+        <v>25.92231339731293</v>
       </c>
       <c r="C24">
-        <v>11.62040147872257</v>
+        <v>15.49977282968261</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.11408483050733</v>
+        <v>6.799661763321835</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.629358204999162</v>
+        <v>2.066671309686347</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>21.51743845917455</v>
+        <v>10.88511622056432</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.0185989620406</v>
+        <v>6.557925034636875</v>
       </c>
       <c r="M24">
-        <v>15.08039473697946</v>
+        <v>14.61672367379456</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.21194012843346</v>
+        <v>12.27606509549181</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.08708983127496</v>
+        <v>23.49481911732464</v>
       </c>
       <c r="C25">
-        <v>11.14570884051679</v>
+        <v>14.39991481913408</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.20173614876632</v>
+        <v>7.040032786560928</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.63275518613237</v>
+        <v>2.076487821233032</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>21.80963841441556</v>
+        <v>11.68167859255437</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.02578733829063</v>
+        <v>6.381910260662559</v>
       </c>
       <c r="M25">
-        <v>14.80385839751974</v>
+        <v>13.31019046999727</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.44785900968401</v>
+        <v>12.50688377876837</v>
       </c>
     </row>
   </sheetData>
